--- a/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">

--- a/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental percibida en Andalucia</t>
+          <t>Salud mental percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24802</t>
+          <t>25563</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27916</t>
+          <t>28571</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10102</t>
+          <t>11689</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>43379</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32338</t>
+          <t>30642</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75696</t>
+          <t>73043</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>57030</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>92931</t>
+          <t>93818</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>96083</t>
+          <t>95861</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>155101</t>
+          <t>151730</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>36,08%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58760</t>
+          <t>58974</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>111214</t>
+          <t>110697</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39843</t>
+          <t>39134</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70759</t>
+          <t>71149</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>109378</t>
+          <t>109948</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>168400</t>
+          <t>168746</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>40,12%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67672</t>
+          <t>67364</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>121426</t>
+          <t>122912</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27071</t>
+          <t>27212</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58083</t>
+          <t>59061</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>104085</t>
+          <t>103788</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>171454</t>
+          <t>170256</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>40,48%</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14260</t>
+          <t>14175</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13909</t>
+          <t>12977</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6352</t>
+          <t>6226</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27487</t>
+          <t>28126</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>8397</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>191483</t>
+          <t>193322</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>23635</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>251132</t>
+          <t>242125</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>44,53%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60983</t>
+          <t>60492</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97474</t>
+          <t>97202</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47010</t>
+          <t>45236</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>123393</t>
+          <t>122011</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>108516</t>
+          <t>109195</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>205770</t>
+          <t>204385</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>37,58%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67895</t>
+          <t>67023</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>107084</t>
+          <t>105791</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47212</t>
+          <t>49079</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>132488</t>
+          <t>134328</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>118928</t>
+          <t>120705</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>221425</t>
+          <t>223211</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36165</t>
+          <t>36657</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69766</t>
+          <t>69922</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21835</t>
+          <t>19060</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>62104</t>
+          <t>61309</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>58147</t>
+          <t>60117</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>121940</t>
+          <t>121044</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14120</t>
+          <t>14864</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>711</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>15493</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18130</t>
+          <t>17534</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,82 +2230,82 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16996</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24080</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>26907</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19066</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>36905</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
           <t>5,83%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>16996</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>11126</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>24714</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>26907</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>18589</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>36783</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>2,93%</t>
-        </is>
-      </c>
-      <c r="W17" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96248</t>
+          <t>97656</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>131482</t>
+          <t>132375</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115694</t>
+          <t>116730</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>143766</t>
+          <t>146274</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>223277</t>
+          <t>223122</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>269239</t>
+          <t>267952</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>42,3%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>117976</t>
+          <t>117388</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>155675</t>
+          <t>154245</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>108357</t>
+          <t>109214</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>137599</t>
+          <t>137190</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>235547</t>
+          <t>236184</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>282166</t>
+          <t>285607</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>45,09%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33388</t>
+          <t>33390</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59953</t>
+          <t>59340</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>39165</t>
+          <t>38835</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>61888</t>
+          <t>60406</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>76924</t>
+          <t>77212</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>112899</t>
+          <t>112999</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>785</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14984</t>
+          <t>15200</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>686</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6378</t>
+          <t>5775</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>16837</t>
+          <t>17634</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7289</t>
+          <t>6501</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>45060</t>
+          <t>44752</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>27218</t>
+          <t>27437</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>44585</t>
+          <t>45485</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>31288</t>
+          <t>30030</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>82551</t>
+          <t>84082</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>299822</t>
+          <t>300534</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>564303</t>
+          <t>547839</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>182277</t>
+          <t>180642</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>214237</t>
+          <t>214585</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>495438</t>
+          <t>495624</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>835123</t>
+          <t>820121</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>79,47%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37961</t>
+          <t>41196</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>189366</t>
+          <t>191043</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>118783</t>
+          <t>118144</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>148924</t>
+          <t>146942</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>120834</t>
+          <t>124306</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>328074</t>
+          <t>328698</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>31,85%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15314</t>
+          <t>19111</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96679</t>
+          <t>91997</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>27785</t>
+          <t>29005</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>47048</t>
+          <t>47279</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>43946</t>
+          <t>47059</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>125514</t>
+          <t>126169</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10289</t>
+          <t>10293</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2273</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>9484</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>16528</t>
+          <t>17266</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23492</t>
+          <t>24514</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>44853</t>
+          <t>44914</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>32022</t>
+          <t>32403</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>51300</t>
+          <t>51227</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>62638</t>
+          <t>61060</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>89460</t>
+          <t>88982</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>146576</t>
+          <t>146358</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>181622</t>
+          <t>181865</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>143566</t>
+          <t>143339</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>170493</t>
+          <t>169096</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>44,53%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>299506</t>
+          <t>299491</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>344234</t>
+          <t>342073</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>90381</t>
+          <t>90567</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>123506</t>
+          <t>122511</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>84196</t>
+          <t>84186</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>108107</t>
+          <t>107026</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>181796</t>
+          <t>180986</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>222544</t>
+          <t>223350</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,74%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>21829</t>
+          <t>21752</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>41917</t>
+          <t>42604</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16600</t>
+          <t>16761</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>32495</t>
+          <t>32970</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>42968</t>
+          <t>42628</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>68698</t>
+          <t>67728</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>6346</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>596</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>7185</t>
+          <t>7286</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,1%</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5393</t>
+          <t>5370</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15436</t>
+          <t>15016</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>8302</t>
+          <t>7618</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>56546</t>
+          <t>57231</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>17167</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>59023</t>
+          <t>60148</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>112424</t>
+          <t>112740</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>135351</t>
+          <t>136414</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>65,05%</t>
+          <t>65,56%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>251982</t>
+          <t>252379</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>414628</t>
+          <t>422203</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>378190</t>
+          <t>376356</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>577127</t>
+          <t>586868</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>88,82%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>45019</t>
+          <t>44073</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>65705</t>
+          <t>64619</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>20724</t>
+          <t>17204</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>113381</t>
+          <t>113954</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>46892</t>
+          <t>44908</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>170205</t>
+          <t>171349</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>25,93%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>13672</t>
+          <t>13285</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27315</t>
+          <t>27683</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>5297</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>32354</t>
+          <t>32676</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>13946</t>
+          <t>14248</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>56124</t>
+          <t>56400</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>549</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4391</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,12 +4865,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>4838</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>13236</t>
+          <t>12916</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>5928</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>14963</t>
+          <t>14592</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>8592</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>19351</t>
+          <t>19232</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>26130</t>
+          <t>27265</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>42127</t>
+          <t>42221</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>37749</t>
+          <t>39131</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>58171</t>
+          <t>56628</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>85930</t>
+          <t>85617</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>105292</t>
+          <t>105389</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>119189</t>
+          <t>119562</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>142322</t>
+          <t>142614</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>212007</t>
+          <t>213393</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>242183</t>
+          <t>242121</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>54,86%</t>
+          <t>55,21%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>62,65%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>20674</t>
+          <t>21068</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>35917</t>
+          <t>36185</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>39475</t>
+          <t>40184</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>59898</t>
+          <t>58554</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>63389</t>
+          <t>63421</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>88386</t>
+          <t>88590</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>22,92%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>8397</t>
+          <t>7922</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19634</t>
+          <t>20711</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>9586</t>
+          <t>8935</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>20827</t>
+          <t>20887</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>19574</t>
+          <t>19608</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>36429</t>
+          <t>36478</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5367,12 +5367,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>11403</t>
+          <t>10559</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>30796</t>
+          <t>30003</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5547,12 +5547,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16806</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>37858</t>
+          <t>38825</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -5562,12 +5562,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>33366</t>
+          <t>32933</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>62423</t>
+          <t>61768</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -5597,12 +5597,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5625,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>78205</t>
+          <t>75728</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>143490</t>
+          <t>141117</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>169790</t>
+          <t>174196</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>460416</t>
+          <t>462922</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -5675,12 +5675,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5695,12 +5695,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>278241</t>
+          <t>283305</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>558768</t>
+          <t>584000</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -5710,12 +5710,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -5738,12 +5738,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>902882</t>
+          <t>906490</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>1382331</t>
+          <t>1393972</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>987492</t>
+          <t>985793</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>1423358</t>
+          <t>1413300</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>1949948</t>
+          <t>1940990</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>2582432</t>
+          <t>2557899</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -5823,12 +5823,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>59,52%</t>
+          <t>58,95%</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>422493</t>
+          <t>398854</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>701432</t>
+          <t>699447</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -5866,12 +5866,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>461109</t>
+          <t>444473</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>694998</t>
+          <t>696531</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5921,12 +5921,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>978967</t>
+          <t>994763</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>1359247</t>
+          <t>1367325</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -5964,12 +5964,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>214952</t>
+          <t>212453</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>362257</t>
+          <t>366526</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5999,12 +5999,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>168332</t>
+          <t>160747</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>267666</t>
+          <t>266446</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>430128</t>
+          <t>427705</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>610426</t>
+          <t>609857</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>14,06%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MEN_PER-Edad-trans_orig.xlsx
@@ -768,7 +768,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9255</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7981</t>
+          <t>10171</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8876</t>
+          <t>8742</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>2598</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25563</t>
+          <t>24987</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14041</t>
+          <t>13977</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6289</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28571</t>
+          <t>27927</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>22917</t>
+          <t>22720</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>11689</t>
+          <t>11652</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>43379</t>
+          <t>42279</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49912</t>
+          <t>54133</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30642</t>
+          <t>34342</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73043</t>
+          <t>76254</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73712</t>
+          <t>80076</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>57030</t>
+          <t>61607</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>93818</t>
+          <t>100124</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,22 +1029,22 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>123624</t>
+          <t>134209</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>95861</t>
+          <t>105062</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>151730</t>
+          <t>162011</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83632</t>
+          <t>85845</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58974</t>
+          <t>63050</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>110697</t>
+          <t>111857</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53718</t>
+          <t>72031</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39134</t>
+          <t>55075</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71149</t>
+          <t>92437</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>137350</t>
+          <t>157875</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>109948</t>
+          <t>129005</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>168746</t>
+          <t>188831</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>40,97%</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93816</t>
+          <t>92545</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67364</t>
+          <t>68451</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>122912</t>
+          <t>118537</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1220,32 +1220,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41261</t>
+          <t>51539</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27212</t>
+          <t>34137</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>59061</t>
+          <t>70604</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1255,32 +1255,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>135077</t>
+          <t>144084</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>103788</t>
+          <t>111997</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>170256</t>
+          <t>177521</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>38,51%</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14175</t>
+          <t>12361</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4775</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12977</t>
+          <t>14327</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14638</t>
+          <t>16979</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6226</t>
+          <t>7656</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28126</t>
+          <t>31367</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78514</t>
+          <t>10239</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8397</t>
+          <t>4630</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>193322</t>
+          <t>18204</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>93152</t>
+          <t>27218</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>23635</t>
+          <t>16480</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>242125</t>
+          <t>43416</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78072</t>
+          <t>88619</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60492</t>
+          <t>68949</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97202</t>
+          <t>108069</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>89613</t>
+          <t>105595</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>45236</t>
+          <t>89115</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>122011</t>
+          <t>124394</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>167685</t>
+          <t>194213</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>109195</t>
+          <t>168815</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>204385</t>
+          <t>221858</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>40,68%</t>
         </is>
       </c>
     </row>
@@ -1754,32 +1754,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86058</t>
+          <t>98043</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67023</t>
+          <t>77256</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>105791</t>
+          <t>120188</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1789,32 +1789,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98261</t>
+          <t>110222</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49079</t>
+          <t>93499</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>134328</t>
+          <t>129170</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1824,32 +1824,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>184319</t>
+          <t>208265</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>120705</t>
+          <t>180876</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>223211</t>
+          <t>235966</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>43,26%</t>
         </is>
       </c>
     </row>
@@ -1867,32 +1867,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50600</t>
+          <t>58333</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36657</t>
+          <t>42622</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69922</t>
+          <t>79337</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1902,32 +1902,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43264</t>
+          <t>52191</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19060</t>
+          <t>39636</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>61309</t>
+          <t>67565</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1937,32 +1937,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>93865</t>
+          <t>110524</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>60117</t>
+          <t>89101</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>121044</t>
+          <t>139276</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>25,54%</t>
         </is>
       </c>
     </row>
@@ -1980,17 +1980,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,17 +2015,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,32 +2097,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5488</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2138</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14864</t>
+          <t>17015</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,32 +2132,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2269</t>
+          <t>2445</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>743</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>6985</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>7757</t>
+          <t>8438</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15493</t>
+          <t>17319</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9911</t>
+          <t>11023</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17534</t>
+          <t>18603</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16996</t>
+          <t>19857</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10997</t>
+          <t>13086</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24080</t>
+          <t>27957</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,22 +2280,22 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>26907</t>
+          <t>30880</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>19066</t>
+          <t>22361</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>36905</t>
+          <t>42244</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>113457</t>
+          <t>129190</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97656</t>
+          <t>111528</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>132375</t>
+          <t>151528</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>130897</t>
+          <t>153426</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>116730</t>
+          <t>136791</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146274</t>
+          <t>170486</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2393,32 +2393,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>244354</t>
+          <t>282615</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>223122</t>
+          <t>256866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>267952</t>
+          <t>307612</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>41,47%</t>
         </is>
       </c>
     </row>
@@ -2436,32 +2436,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>136469</t>
+          <t>168050</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>117388</t>
+          <t>146522</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>154245</t>
+          <t>186355</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2471,32 +2471,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>123083</t>
+          <t>142514</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>109214</t>
+          <t>126528</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>137190</t>
+          <t>157218</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2506,32 +2506,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>259552</t>
+          <t>310563</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>236184</t>
+          <t>285497</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>285607</t>
+          <t>340264</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,88%</t>
         </is>
       </c>
     </row>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45444</t>
+          <t>54063</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33390</t>
+          <t>39264</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>59340</t>
+          <t>69606</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2584,32 +2584,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>49368</t>
+          <t>55144</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>38835</t>
+          <t>43471</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>60406</t>
+          <t>67411</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2619,32 +2619,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>94812</t>
+          <t>109207</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>77212</t>
+          <t>90559</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>112999</t>
+          <t>128728</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -2662,17 +2662,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2732,17 +2732,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>6844</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15200</t>
+          <t>13886</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,22 +2814,22 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>751</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5775</t>
+          <t>6257</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>8849</t>
+          <t>9513</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>4804</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17634</t>
+          <t>17383</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -2892,32 +2892,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>25490</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6501</t>
+          <t>16060</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>44752</t>
+          <t>37989</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2927,32 +2927,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>34835</t>
+          <t>37811</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>27437</t>
+          <t>29760</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>45485</t>
+          <t>49410</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2962,32 +2962,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>58958</t>
+          <t>63301</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>30030</t>
+          <t>51078</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>84082</t>
+          <t>78521</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>433552</t>
+          <t>210944</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>300534</t>
+          <t>190770</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>547839</t>
+          <t>231314</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3040,32 +3040,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>196493</t>
+          <t>213732</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>180642</t>
+          <t>196412</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>214585</t>
+          <t>231039</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3075,32 +3075,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>630045</t>
+          <t>424677</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>495624</t>
+          <t>399993</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>820121</t>
+          <t>452373</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>61,05%</t>
+          <t>49,08%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>52,28%</t>
         </is>
       </c>
     </row>
@@ -3118,32 +3118,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>109748</t>
+          <t>123436</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41196</t>
+          <t>104759</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>191043</t>
+          <t>143742</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>133568</t>
+          <t>144580</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>118144</t>
+          <t>128824</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>146942</t>
+          <t>159318</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3188,32 +3188,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>243316</t>
+          <t>268016</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>124306</t>
+          <t>243433</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>328698</t>
+          <t>291057</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>33,64%</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>53408</t>
+          <t>57226</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19111</t>
+          <t>44008</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>91997</t>
+          <t>74940</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3266,32 +3266,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>37391</t>
+          <t>42500</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>29005</t>
+          <t>33394</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>47279</t>
+          <t>52909</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3301,32 +3301,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>90798</t>
+          <t>99726</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>47059</t>
+          <t>84251</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>126169</t>
+          <t>119608</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3461,32 +3461,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>5351</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10293</t>
+          <t>11072</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3496,32 +3496,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5041</t>
+          <t>5382</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>10044</t>
+          <t>10932</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3531,32 +3531,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>9991</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>17266</t>
+          <t>18332</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -3574,32 +3574,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>33588</t>
+          <t>35026</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>24514</t>
+          <t>25665</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>44914</t>
+          <t>47308</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3609,32 +3609,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>41346</t>
+          <t>46471</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>32403</t>
+          <t>36712</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>51227</t>
+          <t>57434</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3644,32 +3644,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>74934</t>
+          <t>81496</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>61060</t>
+          <t>66163</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>88982</t>
+          <t>96328</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,18%</t>
         </is>
       </c>
     </row>
@@ -3687,32 +3687,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>164455</t>
+          <t>180614</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>146358</t>
+          <t>162455</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>181865</t>
+          <t>198439</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>53,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3722,32 +3722,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>156348</t>
+          <t>180287</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>143339</t>
+          <t>166208</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>169096</t>
+          <t>194160</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>49,83%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>53,67%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3757,32 +3757,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>320803</t>
+          <t>360900</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>299491</t>
+          <t>337195</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>342073</t>
+          <t>383453</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>52,47%</t>
         </is>
       </c>
     </row>
@@ -3800,32 +3800,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>106109</t>
+          <t>111426</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>90567</t>
+          <t>95595</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>122511</t>
+          <t>128168</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3835,32 +3835,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>95358</t>
+          <t>103352</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>84186</t>
+          <t>91249</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>107026</t>
+          <t>116172</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3870,32 +3870,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>201467</t>
+          <t>214778</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>180986</t>
+          <t>193942</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>223350</t>
+          <t>238769</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>32,67%</t>
         </is>
       </c>
     </row>
@@ -3913,32 +3913,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>31024</t>
+          <t>36614</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>21752</t>
+          <t>26029</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>42604</t>
+          <t>48747</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3948,32 +3948,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>23819</t>
+          <t>26282</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16761</t>
+          <t>18698</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>32970</t>
+          <t>34519</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3983,32 +3983,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>54843</t>
+          <t>62896</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>42628</t>
+          <t>50746</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>67728</t>
+          <t>77903</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4026,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,17 +4096,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4178,32 +4178,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>665</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>5965</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4213,32 +4213,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>7286</t>
+          <t>7191</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -4256,32 +4256,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>9239</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>6123</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15016</t>
+          <t>16509</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4291,32 +4291,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>28784</t>
+          <t>31356</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7618</t>
+          <t>23676</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>57231</t>
+          <t>39146</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4326,32 +4326,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>38022</t>
+          <t>41546</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>14800</t>
+          <t>32991</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>60148</t>
+          <t>51745</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>10,32%</t>
         </is>
       </c>
     </row>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>123827</t>
+          <t>136469</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>112740</t>
+          <t>123898</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>136414</t>
+          <t>149871</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>59,01%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>64,8%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4404,32 +4404,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>346385</t>
+          <t>153126</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>252379</t>
+          <t>140321</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>422203</t>
+          <t>165610</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>76,53%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4439,32 +4439,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>470213</t>
+          <t>289594</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>376356</t>
+          <t>272103</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>586868</t>
+          <t>307403</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>56,96%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>61,32%</t>
         </is>
       </c>
     </row>
@@ -4482,32 +4482,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>54385</t>
+          <t>60780</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>44073</t>
+          <t>49106</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>64619</t>
+          <t>71587</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4517,32 +4517,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>59215</t>
+          <t>64631</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17204</t>
+          <t>54714</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>113954</t>
+          <t>75448</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4552,32 +4552,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>113600</t>
+          <t>125411</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>44908</t>
+          <t>110236</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>171349</t>
+          <t>141351</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>28,2%</t>
         </is>
       </c>
     </row>
@@ -4595,32 +4595,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>19482</t>
+          <t>22727</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>13285</t>
+          <t>15434</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27683</t>
+          <t>31825</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4630,32 +4630,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16121</t>
+          <t>18527</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>4348</t>
+          <t>13318</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>32676</t>
+          <t>26089</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4665,32 +4665,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>35603</t>
+          <t>41253</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>14248</t>
+          <t>32152</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>56400</t>
+          <t>52063</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -4708,17 +4708,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4743,17 +4743,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4778,17 +4778,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4825,32 +4825,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>622</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4600</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4860,32 +4860,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>7973</t>
+          <t>8716</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>5082</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>12916</t>
+          <t>14101</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4895,32 +4895,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>9752</t>
+          <t>10976</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>6765</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>14592</t>
+          <t>16421</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -4938,32 +4938,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>13236</t>
+          <t>15119</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>8592</t>
+          <t>9914</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>19232</t>
+          <t>21916</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4973,32 +4973,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>33597</t>
+          <t>37390</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>27265</t>
+          <t>30380</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>42221</t>
+          <t>47303</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5008,32 +5008,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>46833</t>
+          <t>52508</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>39131</t>
+          <t>43872</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>56628</t>
+          <t>63688</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -5051,32 +5051,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>96029</t>
+          <t>104038</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>85617</t>
+          <t>93171</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>105389</t>
+          <t>114164</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5086,32 +5086,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>130831</t>
+          <t>143440</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>119562</t>
+          <t>131062</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>142614</t>
+          <t>156481</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>55,74%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5121,32 +5121,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>226860</t>
+          <t>247478</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>213393</t>
+          <t>232472</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>242121</t>
+          <t>264469</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>62,47%</t>
         </is>
       </c>
     </row>
@@ -5164,32 +5164,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>27613</t>
+          <t>30157</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>21068</t>
+          <t>22646</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>36185</t>
+          <t>39254</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5199,32 +5199,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>48237</t>
+          <t>52381</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>40184</t>
+          <t>43466</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>58554</t>
+          <t>63153</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5234,32 +5234,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>75850</t>
+          <t>82538</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>63421</t>
+          <t>69039</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>88590</t>
+          <t>95938</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,66%</t>
         </is>
       </c>
     </row>
@@ -5277,32 +5277,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>13119</t>
+          <t>14006</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>7922</t>
+          <t>8357</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>20711</t>
+          <t>22231</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5312,32 +5312,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>14073</t>
+          <t>15880</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>8935</t>
+          <t>10261</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>20887</t>
+          <t>24104</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5347,32 +5347,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>27191</t>
+          <t>29887</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>19608</t>
+          <t>21693</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>36478</t>
+          <t>40495</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -5390,17 +5390,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5425,17 +5425,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5460,17 +5460,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5507,32 +5507,32 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>19703</t>
+          <t>21555</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>10559</t>
+          <t>13290</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>30003</t>
+          <t>33391</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5542,67 +5542,67 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>26330</t>
+          <t>28843</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>16806</t>
+          <t>20199</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>38825</t>
+          <t>40724</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>50399</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>37890</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>66191</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>46033</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>32933</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>61768</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -5620,32 +5620,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>113610</t>
+          <t>122569</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>75728</t>
+          <t>100936</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>141117</t>
+          <t>146410</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5655,32 +5655,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>248112</t>
+          <t>197100</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>174196</t>
+          <t>174050</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>462922</t>
+          <t>219889</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5690,32 +5690,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>361721</t>
+          <t>319669</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>283305</t>
+          <t>286720</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>584000</t>
+          <t>354958</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -5733,32 +5733,32 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>1059303</t>
+          <t>904007</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>906490</t>
+          <t>851972</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>1393972</t>
+          <t>947247</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>66,27%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5768,32 +5768,32 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>1124281</t>
+          <t>1029682</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>985793</t>
+          <t>988004</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>1413300</t>
+          <t>1075253</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5803,32 +5803,32 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>2183584</t>
+          <t>1933689</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>1940990</t>
+          <t>1869217</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>2557899</t>
+          <t>1997129</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>46,78%</t>
         </is>
       </c>
     </row>
@@ -5846,32 +5846,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>604014</t>
+          <t>677736</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>398854</t>
+          <t>632375</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>699447</t>
+          <t>722060</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5881,32 +5881,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>611440</t>
+          <t>689709</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>444473</t>
+          <t>649944</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>696531</t>
+          <t>731469</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5916,32 +5916,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>1215454</t>
+          <t>1367445</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>994763</t>
+          <t>1303484</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>1367325</t>
+          <t>1426292</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -5959,32 +5959,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>306893</t>
+          <t>335514</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>212453</t>
+          <t>296747</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>366526</t>
+          <t>381956</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5994,32 +5994,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>225297</t>
+          <t>262063</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>160747</t>
+          <t>232440</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>266446</t>
+          <t>295289</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6029,32 +6029,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>532189</t>
+          <t>597577</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>427705</t>
+          <t>543037</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>609857</t>
+          <t>657528</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>15,4%</t>
         </is>
       </c>
     </row>
@@ -6072,17 +6072,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6107,17 +6107,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
